--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -397,26 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Gecko</v>
+        <v>Rendering engine</v>
       </c>
       <c r="B1" t="str">
-        <v>Firefox 1.0</v>
+        <v>Browser</v>
       </c>
       <c r="C1" t="str">
-        <v>Win 98+ / OSX.2+</v>
+        <v>Platform(s)</v>
       </c>
       <c r="D1" t="str">
-        <v>1.7</v>
+        <v>Engine version</v>
       </c>
       <c r="E1" t="str">
-        <v>A</v>
+        <v>CSS grade</v>
       </c>
     </row>
     <row r="2">
@@ -424,13 +424,13 @@
         <v>Gecko</v>
       </c>
       <c r="B2" t="str">
-        <v>Firefox 1.5</v>
+        <v>Firefox 1.0</v>
       </c>
       <c r="C2" t="str">
         <v>Win 98+ / OSX.2+</v>
       </c>
       <c r="D2" t="str">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E2" t="str">
         <v>A</v>
@@ -441,7 +441,7 @@
         <v>Gecko</v>
       </c>
       <c r="B3" t="str">
-        <v>Firefox 2.0</v>
+        <v>Firefox 1.5</v>
       </c>
       <c r="C3" t="str">
         <v>Win 98+ / OSX.2+</v>
@@ -458,13 +458,13 @@
         <v>Gecko</v>
       </c>
       <c r="B4" t="str">
-        <v>Firefox 3.0</v>
+        <v>Firefox 2.0</v>
       </c>
       <c r="C4" t="str">
-        <v>Win 2k+ / OSX.3+</v>
+        <v>Win 98+ / OSX.2+</v>
       </c>
       <c r="D4" t="str">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="str">
         <v>A</v>
@@ -475,13 +475,13 @@
         <v>Gecko</v>
       </c>
       <c r="B5" t="str">
-        <v>Camino 1.0</v>
+        <v>Firefox 3.0</v>
       </c>
       <c r="C5" t="str">
-        <v>OSX.2+</v>
+        <v>Win 2k+ / OSX.3+</v>
       </c>
       <c r="D5" t="str">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="E5" t="str">
         <v>A</v>
@@ -492,10 +492,10 @@
         <v>Gecko</v>
       </c>
       <c r="B6" t="str">
-        <v>Camino 1.5</v>
+        <v>Camino 1.0</v>
       </c>
       <c r="C6" t="str">
-        <v>OSX.3+</v>
+        <v>OSX.2+</v>
       </c>
       <c r="D6" t="str">
         <v>1.8</v>
@@ -509,13 +509,13 @@
         <v>Gecko</v>
       </c>
       <c r="B7" t="str">
-        <v>Netscape 7.2</v>
+        <v>Camino 1.5</v>
       </c>
       <c r="C7" t="str">
-        <v>Win 95+ / Mac OS 8.6-9.2</v>
+        <v>OSX.3+</v>
       </c>
       <c r="D7" t="str">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E7" t="str">
         <v>A</v>
@@ -526,10 +526,10 @@
         <v>Gecko</v>
       </c>
       <c r="B8" t="str">
-        <v>Netscape Browser 8</v>
+        <v>Netscape 7.2</v>
       </c>
       <c r="C8" t="str">
-        <v>Win 98SE+</v>
+        <v>Win 95+ / Mac OS 8.6-9.2</v>
       </c>
       <c r="D8" t="str">
         <v>1.7</v>
@@ -543,13 +543,13 @@
         <v>Gecko</v>
       </c>
       <c r="B9" t="str">
-        <v>Netscape Navigator 9</v>
+        <v>Netscape Browser 8</v>
       </c>
       <c r="C9" t="str">
-        <v>Win 98+ / OSX.2+</v>
+        <v>Win 98SE+</v>
       </c>
       <c r="D9" t="str">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E9" t="str">
         <v>A</v>
@@ -560,13 +560,13 @@
         <v>Gecko</v>
       </c>
       <c r="B10" t="str">
-        <v>Mozilla 1.0</v>
+        <v>Netscape Navigator 9</v>
       </c>
       <c r="C10" t="str">
-        <v>Win 95+ / OSX.1+</v>
+        <v>Win 98+ / OSX.2+</v>
       </c>
       <c r="D10" t="str">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E10" t="str">
         <v>A</v>
@@ -577,13 +577,13 @@
         <v>Gecko</v>
       </c>
       <c r="B11" t="str">
-        <v>Mozilla 1.1</v>
+        <v>Mozilla 1.0</v>
       </c>
       <c r="C11" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D11" t="str">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <v>A</v>
@@ -594,13 +594,13 @@
         <v>Gecko</v>
       </c>
       <c r="B12" t="str">
-        <v>Mozilla 1.2</v>
+        <v>Mozilla 1.1</v>
       </c>
       <c r="C12" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D12" t="str">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="str">
         <v>A</v>
@@ -611,13 +611,13 @@
         <v>Gecko</v>
       </c>
       <c r="B13" t="str">
-        <v>Mozilla 1.3</v>
+        <v>Mozilla 1.2</v>
       </c>
       <c r="C13" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D13" t="str">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E13" t="str">
         <v>A</v>
@@ -628,13 +628,13 @@
         <v>Gecko</v>
       </c>
       <c r="B14" t="str">
-        <v>Mozilla 1.4</v>
+        <v>Mozilla 1.3</v>
       </c>
       <c r="C14" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D14" t="str">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E14" t="str">
         <v>A</v>
@@ -645,13 +645,13 @@
         <v>Gecko</v>
       </c>
       <c r="B15" t="str">
-        <v>Mozilla 1.5</v>
+        <v>Mozilla 1.4</v>
       </c>
       <c r="C15" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D15" t="str">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E15" t="str">
         <v>A</v>
@@ -662,13 +662,13 @@
         <v>Gecko</v>
       </c>
       <c r="B16" t="str">
-        <v>Mozilla 1.6</v>
+        <v>Mozilla 1.5</v>
       </c>
       <c r="C16" t="str">
         <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D16" t="str">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="str">
         <v>A</v>
@@ -679,13 +679,13 @@
         <v>Gecko</v>
       </c>
       <c r="B17" t="str">
-        <v>Mozilla 1.7</v>
+        <v>Mozilla 1.6</v>
       </c>
       <c r="C17" t="str">
-        <v>Win 98+ / OSX.1+</v>
+        <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D17" t="str">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E17" t="str">
         <v>A</v>
@@ -696,13 +696,13 @@
         <v>Gecko</v>
       </c>
       <c r="B18" t="str">
-        <v>Mozilla 1.8</v>
+        <v>Mozilla 1.7</v>
       </c>
       <c r="C18" t="str">
         <v>Win 98+ / OSX.1+</v>
       </c>
       <c r="D18" t="str">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E18" t="str">
         <v>A</v>
@@ -713,10 +713,10 @@
         <v>Gecko</v>
       </c>
       <c r="B19" t="str">
-        <v>Seamonkey 1.1</v>
+        <v>Mozilla 1.8</v>
       </c>
       <c r="C19" t="str">
-        <v>Win 98+ / OSX.2+</v>
+        <v>Win 98+ / OSX.1+</v>
       </c>
       <c r="D19" t="str">
         <v>1.8</v>
@@ -730,10 +730,10 @@
         <v>Gecko</v>
       </c>
       <c r="B20" t="str">
-        <v>Epiphany 2.20</v>
+        <v>Seamonkey 1.1</v>
       </c>
       <c r="C20" t="str">
-        <v>Gnome</v>
+        <v>Win 98+ / OSX.2+</v>
       </c>
       <c r="D20" t="str">
         <v>1.8</v>
@@ -744,19 +744,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>KHTML</v>
+        <v>Gecko</v>
       </c>
       <c r="B21" t="str">
-        <v>Konqureror 3.1</v>
+        <v>Epiphany 2.20</v>
       </c>
       <c r="C21" t="str">
-        <v>KDE 3.1</v>
+        <v>Gnome</v>
       </c>
       <c r="D21" t="str">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="E21" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="22">
@@ -764,16 +764,16 @@
         <v>KHTML</v>
       </c>
       <c r="B22" t="str">
-        <v>Konqureror 3.3</v>
+        <v>Konqureror 3.1</v>
       </c>
       <c r="C22" t="str">
-        <v>KDE 3.3</v>
+        <v>KDE 3.1</v>
       </c>
       <c r="D22" t="str">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E22" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         <v>KHTML</v>
       </c>
       <c r="B23" t="str">
-        <v>Konqureror 3.5</v>
+        <v>Konqureror 3.3</v>
       </c>
       <c r="C23" t="str">
-        <v>KDE 3.5</v>
+        <v>KDE 3.3</v>
       </c>
       <c r="D23" t="str">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E23" t="str">
         <v>A</v>
@@ -795,19 +795,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Misc</v>
+        <v>KHTML</v>
       </c>
       <c r="B24" t="str">
-        <v>NetFront 3.1</v>
+        <v>Konqureror 3.5</v>
       </c>
       <c r="C24" t="str">
-        <v>Embedded devices</v>
+        <v>KDE 3.5</v>
       </c>
       <c r="D24" t="str">
-        <v>-</v>
+        <v>3.5</v>
       </c>
       <c r="E24" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="25">
@@ -815,7 +815,7 @@
         <v>Misc</v>
       </c>
       <c r="B25" t="str">
-        <v>NetFront 3.4</v>
+        <v>NetFront 3.1</v>
       </c>
       <c r="C25" t="str">
         <v>Embedded devices</v>
@@ -824,7 +824,7 @@
         <v>-</v>
       </c>
       <c r="E25" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="26">
@@ -832,7 +832,7 @@
         <v>Misc</v>
       </c>
       <c r="B26" t="str">
-        <v>Dillo 0.8</v>
+        <v>NetFront 3.4</v>
       </c>
       <c r="C26" t="str">
         <v>Embedded devices</v>
@@ -841,7 +841,7 @@
         <v>-</v>
       </c>
       <c r="E26" t="str">
-        <v>X</v>
+        <v>A</v>
       </c>
     </row>
     <row r="27">
@@ -849,10 +849,10 @@
         <v>Misc</v>
       </c>
       <c r="B27" t="str">
-        <v>Links</v>
+        <v>Dillo 0.8</v>
       </c>
       <c r="C27" t="str">
-        <v>Text only</v>
+        <v>Embedded devices</v>
       </c>
       <c r="D27" t="str">
         <v>-</v>
@@ -866,7 +866,7 @@
         <v>Misc</v>
       </c>
       <c r="B28" t="str">
-        <v>Lynx</v>
+        <v>Links</v>
       </c>
       <c r="C28" t="str">
         <v>Text only</v>
@@ -883,16 +883,16 @@
         <v>Misc</v>
       </c>
       <c r="B29" t="str">
-        <v>IE Mobile</v>
+        <v>Lynx</v>
       </c>
       <c r="C29" t="str">
-        <v>Windows Mobile 6</v>
+        <v>Text only</v>
       </c>
       <c r="D29" t="str">
         <v>-</v>
       </c>
       <c r="E29" t="str">
-        <v>C</v>
+        <v>X</v>
       </c>
     </row>
     <row r="30">
@@ -900,10 +900,10 @@
         <v>Misc</v>
       </c>
       <c r="B30" t="str">
-        <v>PSP browser</v>
+        <v>IE Mobile</v>
       </c>
       <c r="C30" t="str">
-        <v>PSP</v>
+        <v>Windows Mobile 6</v>
       </c>
       <c r="D30" t="str">
         <v>-</v>
@@ -914,36 +914,36 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Other browsers</v>
+        <v>Misc</v>
       </c>
       <c r="B31" t="str">
-        <v>All others</v>
+        <v>PSP browser</v>
       </c>
       <c r="C31" t="str">
-        <v>-</v>
+        <v>PSP</v>
       </c>
       <c r="D31" t="str">
         <v>-</v>
       </c>
       <c r="E31" t="str">
-        <v>U</v>
+        <v>C</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Presto</v>
+        <v>Other browsers</v>
       </c>
       <c r="B32" t="str">
-        <v>Opera 7.0</v>
+        <v>All others</v>
       </c>
       <c r="C32" t="str">
-        <v>Win 95+ / OSX.1+</v>
+        <v>-</v>
       </c>
       <c r="D32" t="str">
         <v>-</v>
       </c>
       <c r="E32" t="str">
-        <v>A</v>
+        <v>U</v>
       </c>
     </row>
     <row r="33">
@@ -951,10 +951,10 @@
         <v>Presto</v>
       </c>
       <c r="B33" t="str">
-        <v>Opera 7.5</v>
+        <v>Opera 7.0</v>
       </c>
       <c r="C33" t="str">
-        <v>Win 95+ / OSX.2+</v>
+        <v>Win 95+ / OSX.1+</v>
       </c>
       <c r="D33" t="str">
         <v>-</v>
@@ -968,7 +968,7 @@
         <v>Presto</v>
       </c>
       <c r="B34" t="str">
-        <v>Opera 8.0</v>
+        <v>Opera 7.5</v>
       </c>
       <c r="C34" t="str">
         <v>Win 95+ / OSX.2+</v>
@@ -985,7 +985,7 @@
         <v>Presto</v>
       </c>
       <c r="B35" t="str">
-        <v>Opera 8.5</v>
+        <v>Opera 8.0</v>
       </c>
       <c r="C35" t="str">
         <v>Win 95+ / OSX.2+</v>
@@ -1002,10 +1002,10 @@
         <v>Presto</v>
       </c>
       <c r="B36" t="str">
-        <v>Opera 9.0</v>
+        <v>Opera 8.5</v>
       </c>
       <c r="C36" t="str">
-        <v>Win 95+ / OSX.3+</v>
+        <v>Win 95+ / OSX.2+</v>
       </c>
       <c r="D36" t="str">
         <v>-</v>
@@ -1019,10 +1019,10 @@
         <v>Presto</v>
       </c>
       <c r="B37" t="str">
-        <v>Opera 9.2</v>
+        <v>Opera 9.0</v>
       </c>
       <c r="C37" t="str">
-        <v>Win 88+ / OSX.3+</v>
+        <v>Win 95+ / OSX.3+</v>
       </c>
       <c r="D37" t="str">
         <v>-</v>
@@ -1036,7 +1036,7 @@
         <v>Presto</v>
       </c>
       <c r="B38" t="str">
-        <v>Opera 9.5</v>
+        <v>Opera 9.2</v>
       </c>
       <c r="C38" t="str">
         <v>Win 88+ / OSX.3+</v>
@@ -1053,10 +1053,10 @@
         <v>Presto</v>
       </c>
       <c r="B39" t="str">
-        <v>Opera for Wii</v>
+        <v>Opera 9.5</v>
       </c>
       <c r="C39" t="str">
-        <v>Wii</v>
+        <v>Win 88+ / OSX.3+</v>
       </c>
       <c r="D39" t="str">
         <v>-</v>
@@ -1070,10 +1070,10 @@
         <v>Presto</v>
       </c>
       <c r="B40" t="str">
-        <v>Nokia N800</v>
+        <v>Opera for Wii</v>
       </c>
       <c r="C40" t="str">
-        <v>N800</v>
+        <v>Wii</v>
       </c>
       <c r="D40" t="str">
         <v>-</v>
@@ -1087,33 +1087,33 @@
         <v>Presto</v>
       </c>
       <c r="B41" t="str">
-        <v>Nintendo DS browser</v>
+        <v>Nokia N800</v>
       </c>
       <c r="C41" t="str">
-        <v>Nintendo DS</v>
+        <v>N800</v>
       </c>
       <c r="D41" t="str">
-        <v>8.5</v>
+        <v>-</v>
       </c>
       <c r="E41" t="str">
-        <v>C/A1</v>
+        <v>A</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Tasman</v>
+        <v>Presto</v>
       </c>
       <c r="B42" t="str">
-        <v>Internet Explorer 4.5</v>
+        <v>Nintendo DS browser</v>
       </c>
       <c r="C42" t="str">
-        <v>Mac OS 8-9</v>
+        <v>Nintendo DS</v>
       </c>
       <c r="D42" t="str">
-        <v>-</v>
+        <v>8.5</v>
       </c>
       <c r="E42" t="str">
-        <v>X</v>
+        <v>C/A1</v>
       </c>
     </row>
     <row r="43">
@@ -1121,16 +1121,16 @@
         <v>Tasman</v>
       </c>
       <c r="B43" t="str">
-        <v>Internet Explorer 5.1</v>
+        <v>Internet Explorer 4.5</v>
       </c>
       <c r="C43" t="str">
-        <v>Mac OS 7.6-9</v>
+        <v>Mac OS 8-9</v>
       </c>
       <c r="D43" t="str">
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="E43" t="str">
-        <v>C</v>
+        <v>X</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         <v>Tasman</v>
       </c>
       <c r="B44" t="str">
-        <v>Internet Explorer 5.2</v>
+        <v>Internet Explorer 5.1</v>
       </c>
       <c r="C44" t="str">
-        <v>Mac OS 8-X</v>
+        <v>Mac OS 7.6-9</v>
       </c>
       <c r="D44" t="str">
         <v>1</v>
@@ -1152,19 +1152,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Trident</v>
+        <v>Tasman</v>
       </c>
       <c r="B45" t="str">
-        <v>Internet Explorer 4.0</v>
+        <v>Internet Explorer 5.2</v>
       </c>
       <c r="C45" t="str">
-        <v>Win 95+</v>
+        <v>Mac OS 8-X</v>
       </c>
       <c r="D45" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>X</v>
+        <v>C</v>
       </c>
     </row>
     <row r="46">
@@ -1172,16 +1172,16 @@
         <v>Trident</v>
       </c>
       <c r="B46" t="str">
-        <v>Internet Explorer 5.0</v>
+        <v>Internet Explorer 4.0</v>
       </c>
       <c r="C46" t="str">
         <v>Win 95+</v>
       </c>
       <c r="D46" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="str">
-        <v>C</v>
+        <v>X</v>
       </c>
     </row>
     <row r="47">
@@ -1189,16 +1189,16 @@
         <v>Trident</v>
       </c>
       <c r="B47" t="str">
-        <v>Internet Explorer 5.5</v>
+        <v>Internet Explorer 5.0</v>
       </c>
       <c r="C47" t="str">
         <v>Win 95+</v>
       </c>
       <c r="D47" t="str">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E47" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="48">
@@ -1206,13 +1206,13 @@
         <v>Trident</v>
       </c>
       <c r="B48" t="str">
-        <v>Internet Explorer 6</v>
+        <v>Internet Explorer 5.5</v>
       </c>
       <c r="C48" t="str">
-        <v>Win 98+</v>
+        <v>Win 95+</v>
       </c>
       <c r="D48" t="str">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E48" t="str">
         <v>A</v>
@@ -1223,13 +1223,13 @@
         <v>Trident</v>
       </c>
       <c r="B49" t="str">
-        <v>Internet Explorer 7</v>
+        <v>Internet Explorer 6</v>
       </c>
       <c r="C49" t="str">
-        <v>Win XP SP2+</v>
+        <v>Win 98+</v>
       </c>
       <c r="D49" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="str">
         <v>A</v>
@@ -1240,13 +1240,13 @@
         <v>Trident</v>
       </c>
       <c r="B50" t="str">
-        <v>AOL browser (AOL desktop)</v>
+        <v>Internet Explorer 7</v>
       </c>
       <c r="C50" t="str">
-        <v>Win XP</v>
+        <v>Win XP SP2+</v>
       </c>
       <c r="D50" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" t="str">
         <v>A</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Webkit</v>
+        <v>Trident</v>
       </c>
       <c r="B51" t="str">
-        <v>Safari 1.2</v>
+        <v>AOL browser (AOL desktop)</v>
       </c>
       <c r="C51" t="str">
-        <v>OSX.3</v>
+        <v>Win XP</v>
       </c>
       <c r="D51" t="str">
-        <v>125.5</v>
+        <v>6</v>
       </c>
       <c r="E51" t="str">
         <v>A</v>
@@ -1274,13 +1274,13 @@
         <v>Webkit</v>
       </c>
       <c r="B52" t="str">
-        <v>Safari 1.3</v>
+        <v>Safari 1.2</v>
       </c>
       <c r="C52" t="str">
         <v>OSX.3</v>
       </c>
       <c r="D52" t="str">
-        <v>312.8</v>
+        <v>125.5</v>
       </c>
       <c r="E52" t="str">
         <v>A</v>
@@ -1291,13 +1291,13 @@
         <v>Webkit</v>
       </c>
       <c r="B53" t="str">
-        <v>Safari 2.0</v>
+        <v>Safari 1.3</v>
       </c>
       <c r="C53" t="str">
-        <v>OSX.4+</v>
+        <v>OSX.3</v>
       </c>
       <c r="D53" t="str">
-        <v>419.3</v>
+        <v>312.8</v>
       </c>
       <c r="E53" t="str">
         <v>A</v>
@@ -1308,13 +1308,13 @@
         <v>Webkit</v>
       </c>
       <c r="B54" t="str">
-        <v>Safari 3.0</v>
+        <v>Safari 2.0</v>
       </c>
       <c r="C54" t="str">
         <v>OSX.4+</v>
       </c>
       <c r="D54" t="str">
-        <v>522.1</v>
+        <v>419.3</v>
       </c>
       <c r="E54" t="str">
         <v>A</v>
@@ -1325,13 +1325,13 @@
         <v>Webkit</v>
       </c>
       <c r="B55" t="str">
-        <v>OmniWeb 5.5</v>
+        <v>Safari 3.0</v>
       </c>
       <c r="C55" t="str">
         <v>OSX.4+</v>
       </c>
       <c r="D55" t="str">
-        <v>420</v>
+        <v>522.1</v>
       </c>
       <c r="E55" t="str">
         <v>A</v>
@@ -1342,13 +1342,13 @@
         <v>Webkit</v>
       </c>
       <c r="B56" t="str">
-        <v>iPod Touch / iPhone</v>
+        <v>OmniWeb 5.5</v>
       </c>
       <c r="C56" t="str">
-        <v>iPod</v>
+        <v>OSX.4+</v>
       </c>
       <c r="D56" t="str">
-        <v>420.1</v>
+        <v>420</v>
       </c>
       <c r="E56" t="str">
         <v>A</v>
@@ -1359,21 +1359,38 @@
         <v>Webkit</v>
       </c>
       <c r="B57" t="str">
+        <v>iPod Touch / iPhone</v>
+      </c>
+      <c r="C57" t="str">
+        <v>iPod</v>
+      </c>
+      <c r="D57" t="str">
+        <v>420.1</v>
+      </c>
+      <c r="E57" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Webkit</v>
+      </c>
+      <c r="B58" t="str">
         <v>S60</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C58" t="str">
         <v>S60</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D58" t="str">
         <v>413</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E58" t="str">
         <v>A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E58"/>
   </ignoredErrors>
 </worksheet>
 </file>